--- a/NEW HR/DONE/DAIZ, PAUL MICHAEL.xlsx
+++ b/NEW HR/DONE/DAIZ, PAUL MICHAEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>12/16-27/2019</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>06/5-9/2023</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
   </si>
 </sst>
 </file>
@@ -3265,10 +3277,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="5535" topLeftCell="A74" activePane="bottomLeft"/>
+      <selection activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,7 +3451,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4807,15 +4819,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4823,15 +4839,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4839,15 +4859,21 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4855,15 +4881,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4871,10 +4901,16 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>5</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4884,10 +4920,14 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4903,7 +4943,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4919,7 +4961,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4935,7 +4979,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4951,7 +4997,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4967,7 +5015,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4983,7 +5033,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4999,7 +5051,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5015,7 +5069,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5031,7 +5087,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5047,7 +5105,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5063,7 +5123,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5079,7 +5141,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5095,7 +5159,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5111,7 +5177,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5127,7 +5195,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45566</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5143,7 +5213,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45597</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5159,7 +5231,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45627</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5175,7 +5249,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45658</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5191,7 +5267,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45689</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5782,7 +5860,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
@@ -6058,7 +6136,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
       <c r="D14" s="39"/>
